--- a/edu_routine_schedule_export.xlsx
+++ b/edu_routine_schedule_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>routine_id</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>lab_theory</t>
-  </si>
-  <si>
-    <t>aStatus</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -423,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,72 +459,69 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
